--- a/data/user_profile.xlsx
+++ b/data/user_profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAI_PLAYWRIGHT_PYTHON\PlaywrightPython\PLAYWRIGHT_Project_First\PlaywrightPython\MaiNTH\MaiNTH_BAI CUOI KHOA\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAI_BAI_CUOI_KHOA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F134896-1BA9-4A30-A8BA-8071C0742086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AE4D4B-7FFF-46F5-9DE0-CFFD8EC089FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63C70DE3-F569-4AD6-8957-77A916596FC9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63C70DE3-F569-4AD6-8957-77A916596FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>avatar-2</t>
   </si>
   <si>
-    <t>456 Hà Nội, Việt Nam</t>
-  </si>
-  <si>
     <t>Mainth_001</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>valid_profile_update_field_address</t>
   </si>
   <si>
-    <t>123 Hà Nội, Việt Nam</t>
-  </si>
-  <si>
     <t>0986555555</t>
   </si>
   <si>
@@ -114,6 +108,12 @@
   </si>
   <si>
     <t>0986666666</t>
+  </si>
+  <si>
+    <t>Phường Hoàn Kiếm, Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>Phường Cửa Nam, Thành phố Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -500,14 +500,14 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.28515625" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
@@ -558,23 +558,23 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1"/>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2">
         <v>200</v>
@@ -585,22 +585,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>200</v>
@@ -611,22 +611,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>200</v>
@@ -637,22 +637,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5">
         <v>200</v>
@@ -663,22 +663,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6">
         <v>200</v>
